--- a/GCMs to use.xlsx
+++ b/GCMs to use.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theag\OneDrive - Aarhus Universitet\Semester 10\Preprojekt Masters\Personlig lollen rundt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au613651_uni_au_dk/Documents/Semester 10/Preprojekt Masters/Preproject-Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29202CB5-F474-454E-A3A9-B6719F92605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B6A47521-9700-4C32-8A1F-E18B12FC5AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C167B16-3D58-4D3F-ACCA-EB88D5096A62}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="13050" xr2:uid="{C142CD72-646F-4EF8-AC74-17DAE170C746}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{C142CD72-646F-4EF8-AC74-17DAE170C746}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="The GCM's we will use" sheetId="2" r:id="rId1"/>
+    <sheet name="Reviewing all GCM's from articl" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="70">
   <si>
     <t xml:space="preserve">The following models are from article 4. They have u and v (zonal and meridional winds), T (air temperature) and q (specific humidity). </t>
   </si>
@@ -234,6 +235,18 @@
   </si>
   <si>
     <t>CMCC-ESM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the GCM's that we will use. </t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>3hr / day</t>
+  </si>
+  <si>
+    <t>3hr / 6hr / day</t>
   </si>
 </sst>
 </file>
@@ -313,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,7 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,11 +919,480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA23B30-C5F1-44EE-BD29-745C0AD85F8C}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0979A38-CD23-4A79-A37D-F9C7BB1D73C6}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1959,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
     </row>
